--- a/Reporte.xlsx
+++ b/Reporte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B28959541\Documents\laurars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17D3265-DCCE-45A6-B99E-9C1FB0682ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B2D46F-8FCF-4500-B639-A22E7A2D0B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="0" activeTab="0" xr2:uid="{D2F9A952-F014-423F-A129-5F56DE9380AB}"/>
   </x:bookViews>
@@ -37,189 +37,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <x:si>
     <x:t>Project Name</x:t>
   </x:si>
   <x:si>
-    <x:t>Type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Description</x:t>
-  </x:si>
-  <x:si>
     <x:t>Presupuesto</x:t>
   </x:si>
   <x:si>
-    <x:t>UL223314</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Administrativo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ADM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>instalar un nuevo sistema de contabilidad</x:t>
+    <x:t>ADM_UL223314.xlsx</x:t>
   </x:si>
   <x:si>
     <x:t>N/A</x:t>
   </x:si>
   <x:si>
-    <x:t>UR237511</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AL258112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Construcción</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CON</x:t>
-  </x:si>
-  <x:si>
-    <x:t>un edificio o camino</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AR044321</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AL258113</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Desarrollo de software informático</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CSD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>un nuevo programa de computadora</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UL258001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UL258122</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UL258129</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AR062233</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Diseño de Planes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DOP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>planos arquitectonicos o de ingenieria</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AR062331</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UR054912</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AH001256</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Evento o Reubicación</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EOR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Olimpiadas o mudarse a un nuevo edificio</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AL001936</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AL071236</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AL112347</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AL213557</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Instalación de equipos o sistemas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ESI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>un sistema telefónico o un sistema de TI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AL232310</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AL221556</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mantenimiento de Industrias de Proceso</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MPI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>planta petroquímica o estación de generación eléctrica</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UR216878</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Desarrollo de nuevo producto</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NPD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>un nuevo fármaco o producto aeroespacial/de defensa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UR332441</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AL053494</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Investigación</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>un estudio de viabilidad o la investigación de un producto químico</x:t>
+    <x:t>ADM_UR237511.xlsx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CON_AL258112.xlsx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CON_AR044321.xlsx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CSD_AL258113.xlsx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CSD_UL258001.xlsx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CSD_UL258122.xlsx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CSD_UL258129.xlsx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DOP_AR062233.xlsx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DOP_AR062331.xlsx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DOP_UR054912.xlsx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EOR_AH001256.xlsx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EOR_AL001936.xlsx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EOR_AL071236.xlsx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EOR_AL112347.xlsx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ESI_AL213557.xlsx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ESI_AL232310.xlsx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MPI_AL221556.xlsx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NPD_UR216878.xlsx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NPD_UR332441.xlsx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RES_AL053494.xlsx</x:t>
   </x:si>
   <x:si>
     <x:t>20000</x:t>
   </x:si>
   <x:si>
-    <x:t>AR056691</x:t>
+    <x:t>RES_AR056691.xlsx</x:t>
   </x:si>
   <x:si>
     <x:t>13333.33</x:t>
   </x:si>
   <x:si>
-    <x:t>UL046321</x:t>
+    <x:t>RES_UL046321.xlsx</x:t>
   </x:si>
   <x:si>
     <x:t>15454.55</x:t>
   </x:si>
   <x:si>
-    <x:t>UL054239</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UR047451</x:t>
+    <x:t>RES_UL054239.xlsx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RES_UR047451.xlsx</x:t>
   </x:si>
   <x:si>
     <x:t>13076.92</x:t>
@@ -611,7 +521,7 @@
   <x:dimension ref="A1:E1"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="E27" sqref="E27 E27:E27 A1:E27"/>
+      <x:selection activeCell="B26" sqref="B26 A1:B26"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,443 +539,209 @@
       <x:c r="B1" s="4" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="4" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" s="4" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E1" s="4" t="s">
-        <x:v>4</x:v>
-      </x:c>
+      <x:c r="C1" s="4" t="s"/>
+      <x:c r="D1" s="4" t="s"/>
+      <x:c r="E1" s="4" t="s"/>
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="A2" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C2" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D2" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E2" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C3" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D3" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E3" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="A4" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C4" s="3" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D4" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E4" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C5" s="3" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C6" s="3" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D6" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E6" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C7" s="3" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D7" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E7" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="A8" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C8" s="3" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D8" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E8" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" s="3" t="s">
-        <x:v>22</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C9" s="3" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D9" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E9" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C10" s="3" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="D10" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E10" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="3" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C11" s="3" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="D11" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E11" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B12" s="3" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C12" s="3" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="D12" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E12" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="A13" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B13" s="3" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C13" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D13" s="3" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E13" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="A14" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C14" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D14" s="3" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E14" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="A15" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B15" s="3" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C15" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D15" s="3" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E15" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
       <x:c r="A16" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B16" s="3" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C16" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D16" s="3" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E16" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
       <x:c r="A17" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B17" s="3" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C17" s="3" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D17" s="3" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="E17" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
       <x:c r="A18" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B18" s="3" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C18" s="3" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D18" s="3" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="E18" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5">
       <x:c r="A19" s="3" t="s">
-        <x:v>41</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B19" s="3" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="C19" s="3" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D19" s="3" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="E19" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5">
       <x:c r="A20" s="3" t="s">
-        <x:v>45</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B20" s="3" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C20" s="3" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D20" s="3" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="E20" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5">
       <x:c r="A21" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B21" s="3" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C21" s="3" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D21" s="3" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="E21" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5">
       <x:c r="A22" s="3" t="s">
-        <x:v>50</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B22" s="3" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C22" s="3" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="D22" s="3" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="E22" s="3" t="s">
-        <x:v>54</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5">
       <x:c r="A23" s="3" t="s">
-        <x:v>55</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B23" s="3" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C23" s="3" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="D23" s="3" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="E23" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
       <x:c r="A24" s="3" t="s">
-        <x:v>57</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B24" s="3" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C24" s="3" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="D24" s="3" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="E24" s="3" t="s">
-        <x:v>58</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5">
       <x:c r="A25" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B25" s="3" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C25" s="3" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="D25" s="3" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="E25" s="3" t="s">
-        <x:v>58</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5">
       <x:c r="A26" s="3" t="s">
-        <x:v>60</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B26" s="3" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C26" s="3" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="D26" s="3" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="E26" s="3" t="s">
-        <x:v>61</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:5">
-      <x:c r="E27" s="3" t="s"/>
+        <x:v>31</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
